--- a/admin/kreise.xlsx
+++ b/admin/kreise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C626C54-1282-423D-9FC9-FFE701228384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E21A61-7636-4A55-82F7-3BCBAAC6ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -262,9 +262,6 @@
     <t>Reinoldikirche</t>
   </si>
   <si>
-    <t>Nullpunkt unbekannt, Rotation berechnet über Bgmstr. Unna</t>
-  </si>
-  <si>
     <t>wittgenstein</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Vermessungsraster</t>
+  </si>
+  <si>
+    <t>Nullpunkt wahrscheinlich Stadtkiche Unna, für einige Bgmstr. bestätigt. Rotation berechnet über Bgmstr. Unna</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1077,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1220,13 +1220,17 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5">
+        <v>409239.2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5710123.6100000003</v>
+      </c>
       <c r="F9" s="5">
         <v>1.58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1315,10 +1319,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1350,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1610,7 +1614,9 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="5">
+        <v>1.575</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>

--- a/admin/kreise.xlsx
+++ b/admin/kreise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E21A61-7636-4A55-82F7-3BCBAAC6ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA353D8-871E-4474-8057-966522277AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="5" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1388,9 +1388,15 @@
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1">
+        <v>356512.33</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5645224.4299999997</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.58</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -1615,7 +1621,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="5">
-        <v>1.575</v>
+        <v>196.74</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
